--- a/src/data/bankA/ANN_Portfolio.xlsx
+++ b/src/data/bankA/ANN_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viganhamzai/Documents/ZHAW_WI/07_Semester/PA/PA_FEMS/src/data/bankA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A7A35-1B22-E647-B2CA-7FD151E9F79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEF1B0F-8CE5-3C43-8F6A-8D15A9201FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2827F415-5853-FE46-AE22-EC4475DFFC5F}"/>
   </bookViews>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF54409-75AA-D240-BC62-D87145E7C900}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,7 +727,7 @@
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
@@ -923,7 +923,7 @@
         <v>44</v>
       </c>
       <c r="Q2" s="1">
-        <f t="shared" ref="Q2:Q23" si="0">U2</f>
+        <f t="shared" ref="Q2:Q16" si="0">U2</f>
         <v>46023</v>
       </c>
       <c r="R2" s="1">
@@ -943,7 +943,7 @@
       </c>
       <c r="V2">
         <f ca="1">RANDBETWEEN(500000, 3000000)</f>
-        <v>1737661</v>
+        <v>2808053</v>
       </c>
       <c r="W2" s="1">
         <f>DATE(YEAR(S2)+1,MONTH(S2),DAY(S2))</f>
@@ -1046,7 +1046,7 @@
         <v>46753</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R23" si="2">E3</f>
+        <f t="shared" ref="R3:R16" si="2">E3</f>
         <v>44561</v>
       </c>
       <c r="S3" s="1">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V16" ca="1" si="4">RANDBETWEEN(500000, 3000000)</f>
-        <v>2721605</v>
+        <v>1923641</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" ref="W3:W16" si="5">DATE(YEAR(S3)+1,MONTH(S3),DAY(S3))</f>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="4"/>
-        <v>2335062</v>
+        <v>1539561</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="5"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="4"/>
-        <v>2277854</v>
+        <v>2981112</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="5"/>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="4"/>
-        <v>2307540</v>
+        <v>2297536</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="5"/>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="4"/>
-        <v>1990634</v>
+        <v>1729008</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="5"/>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="4"/>
-        <v>1144671</v>
+        <v>992005</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="5"/>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="4"/>
-        <v>1924996</v>
+        <v>2707766</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="5"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="4"/>
-        <v>2255822</v>
+        <v>2487277</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="5"/>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="4"/>
-        <v>728355</v>
+        <v>2210409</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="5"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="4"/>
-        <v>2319221</v>
+        <v>2953374</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="5"/>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="4"/>
-        <v>530676</v>
+        <v>899707</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="5"/>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="4"/>
-        <v>1467807</v>
+        <v>648554</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="5"/>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="4"/>
-        <v>2377417</v>
+        <v>2117564</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="5"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="4"/>
-        <v>1780521</v>
+        <v>665165</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="5"/>
@@ -2680,11 +2680,11 @@
         <v>44</v>
       </c>
       <c r="Q17" s="1">
-        <f>U17</f>
+        <f t="shared" ref="Q17:Q28" si="9">U17</f>
         <v>45292</v>
       </c>
       <c r="R17" s="1">
-        <f>E17</f>
+        <f t="shared" ref="R17:R23" si="10">E17</f>
         <v>44561</v>
       </c>
       <c r="S17" s="1">
@@ -2794,11 +2794,11 @@
         <v>44</v>
       </c>
       <c r="Q18" s="1">
-        <f>U18</f>
+        <f t="shared" si="9"/>
         <v>46388</v>
       </c>
       <c r="R18" s="1">
-        <f>E18</f>
+        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S18" s="1">
@@ -2816,7 +2816,7 @@
         <v>550000</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ref="W18:W23" si="9">DATE(YEAR(S18)+1,MONTH(S18),DAY(S18))</f>
+        <f t="shared" ref="W18:W23" si="11">DATE(YEAR(S18)+1,MONTH(S18),DAY(S18))</f>
         <v>44927</v>
       </c>
       <c r="X18" t="s">
@@ -2829,7 +2829,7 @@
         <v>37</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" ref="AA18:AA20" si="10">R18</f>
+        <f t="shared" ref="AA18:AA20" si="12">R18</f>
         <v>44561</v>
       </c>
       <c r="AB18" t="s">
@@ -2912,11 +2912,11 @@
         <v>44</v>
       </c>
       <c r="Q19" s="1">
-        <f>U19</f>
+        <f t="shared" si="9"/>
         <v>46023</v>
       </c>
       <c r="R19" s="1">
-        <f>E19</f>
+        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S19" s="1">
@@ -2934,7 +2934,7 @@
         <v>725000</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44927</v>
       </c>
       <c r="X19" t="s">
@@ -2947,7 +2947,7 @@
         <v>37</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44561</v>
       </c>
       <c r="AB19" t="s">
@@ -3030,11 +3030,11 @@
         <v>44</v>
       </c>
       <c r="Q20" s="1">
-        <f>U20</f>
+        <f t="shared" si="9"/>
         <v>47119</v>
       </c>
       <c r="R20" s="1">
-        <f>E20</f>
+        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S20" s="1">
@@ -3052,7 +3052,7 @@
         <v>225000</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44927</v>
       </c>
       <c r="X20" t="s">
@@ -3065,7 +3065,7 @@
         <v>37</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44561</v>
       </c>
       <c r="AB20" t="s">
@@ -3148,11 +3148,11 @@
         <v>44</v>
       </c>
       <c r="Q21" s="1">
-        <f>U21</f>
+        <f t="shared" si="9"/>
         <v>46753</v>
       </c>
       <c r="R21" s="1">
-        <f>E21</f>
+        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S21" s="1">
@@ -3170,7 +3170,7 @@
         <v>500000</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44927</v>
       </c>
       <c r="X21" t="s">
@@ -3240,7 +3240,7 @@
         <v>98</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" ref="J22:J28" si="11">DATE(YEAR(S22)+1,MONTH(S22),DAY(S22))</f>
+        <f t="shared" ref="J22:J28" si="13">DATE(YEAR(S22)+1,MONTH(S22),DAY(S22))</f>
         <v>44927</v>
       </c>
       <c r="K22" t="s">
@@ -3262,11 +3262,11 @@
         <v>44</v>
       </c>
       <c r="Q22" s="1">
-        <f>U22</f>
+        <f t="shared" si="9"/>
         <v>48214</v>
       </c>
       <c r="R22" s="1">
-        <f>E22</f>
+        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S22" s="1">
@@ -3284,7 +3284,7 @@
         <v>1450000</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44927</v>
       </c>
       <c r="X22" t="s">
@@ -3354,7 +3354,7 @@
         <v>98</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44927</v>
       </c>
       <c r="K23" t="s">
@@ -3376,11 +3376,11 @@
         <v>44</v>
       </c>
       <c r="Q23" s="1">
-        <f>U23</f>
+        <f t="shared" si="9"/>
         <v>47484</v>
       </c>
       <c r="R23" s="1">
-        <f>E23</f>
+        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S23" s="1">
@@ -3398,7 +3398,7 @@
         <v>550000</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44927</v>
       </c>
       <c r="X23" t="s">
@@ -3411,7 +3411,7 @@
         <v>37</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" ref="AA23:AA25" si="12">R23</f>
+        <f t="shared" ref="AA23:AA25" si="14">R23</f>
         <v>44561</v>
       </c>
       <c r="AB23" t="s">
@@ -3472,7 +3472,7 @@
         <v>98</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44927</v>
       </c>
       <c r="K24" t="s">
@@ -3494,11 +3494,11 @@
         <v>44</v>
       </c>
       <c r="Q24" s="1">
-        <f>U24</f>
+        <f t="shared" si="9"/>
         <v>46388</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ref="R24:R28" si="13">E24</f>
+        <f t="shared" ref="R24:R28" si="15">E24</f>
         <v>44561</v>
       </c>
       <c r="S24" s="1">
@@ -3516,7 +3516,7 @@
         <v>1500000</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ref="W24:W28" si="14">DATE(YEAR(S24)+1,MONTH(S24),DAY(S24))</f>
+        <f t="shared" ref="W24:W28" si="16">DATE(YEAR(S24)+1,MONTH(S24),DAY(S24))</f>
         <v>44927</v>
       </c>
       <c r="X24" t="s">
@@ -3529,7 +3529,7 @@
         <v>37</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44561</v>
       </c>
       <c r="AB24" t="s">
@@ -3590,7 +3590,7 @@
         <v>98</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44927</v>
       </c>
       <c r="K25" t="s">
@@ -3612,11 +3612,11 @@
         <v>44</v>
       </c>
       <c r="Q25" s="1">
-        <f>U25</f>
+        <f t="shared" si="9"/>
         <v>48214</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>44561</v>
       </c>
       <c r="S25" s="1">
@@ -3634,20 +3634,20 @@
         <v>3500000</v>
       </c>
       <c r="W25" s="1">
+        <f t="shared" si="16"/>
+        <v>44927</v>
+      </c>
+      <c r="X25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA25" s="1">
         <f t="shared" si="14"/>
-        <v>44927</v>
-      </c>
-      <c r="X25" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA25" s="1">
-        <f t="shared" si="12"/>
         <v>44561</v>
       </c>
       <c r="AB25" t="s">
@@ -3708,7 +3708,7 @@
         <v>98</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44927</v>
       </c>
       <c r="K26" t="s">
@@ -3730,11 +3730,11 @@
         <v>44</v>
       </c>
       <c r="Q26" s="1">
-        <f>U26</f>
+        <f t="shared" si="9"/>
         <v>47119</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>44561</v>
       </c>
       <c r="S26" s="1">
@@ -3752,7 +3752,7 @@
         <v>2000000</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>44927</v>
       </c>
       <c r="X26" t="s">
@@ -3822,7 +3822,7 @@
         <v>98</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44927</v>
       </c>
       <c r="K27" t="s">
@@ -3844,11 +3844,11 @@
         <v>44</v>
       </c>
       <c r="Q27" s="1">
-        <f>U27</f>
+        <f t="shared" si="9"/>
         <v>45292</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>44561</v>
       </c>
       <c r="S27" s="1">
@@ -3866,7 +3866,7 @@
         <v>1250000</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>44927</v>
       </c>
       <c r="X27" t="s">
@@ -3936,7 +3936,7 @@
         <v>98</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44927</v>
       </c>
       <c r="K28" t="s">
@@ -3958,11 +3958,11 @@
         <v>44</v>
       </c>
       <c r="Q28" s="1">
-        <f>U28</f>
+        <f t="shared" si="9"/>
         <v>45658</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>44561</v>
       </c>
       <c r="S28" s="1">
@@ -3980,7 +3980,7 @@
         <v>1750000</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>44927</v>
       </c>
       <c r="X28" t="s">
@@ -3993,7 +3993,7 @@
         <v>37</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" ref="AA28" si="15">R28</f>
+        <f t="shared" ref="AA28" si="17">R28</f>
         <v>44561</v>
       </c>
       <c r="AB28" t="s">

--- a/src/data/bankA/ANN_Portfolio.xlsx
+++ b/src/data/bankA/ANN_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viganhamzai/Documents/ZHAW_WI/07_Semester/PA/PA_FEMS/src/data/bankA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEF1B0F-8CE5-3C43-8F6A-8D15A9201FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B126D1B-46FE-9A4E-A075-BA8E4FAB5FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2827F415-5853-FE46-AE22-EC4475DFFC5F}"/>
   </bookViews>
@@ -395,11 +395,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -717,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF54409-75AA-D240-BC62-D87145E7C900}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,7 +899,7 @@
       <c r="I2" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <f>DATE(YEAR(S2)+1,MONTH(S2),DAY(S2))</f>
         <v>44927</v>
       </c>
@@ -943,7 +942,7 @@
       </c>
       <c r="V2">
         <f ca="1">RANDBETWEEN(500000, 3000000)</f>
-        <v>2808053</v>
+        <v>1668220</v>
       </c>
       <c r="W2" s="1">
         <f>DATE(YEAR(S2)+1,MONTH(S2),DAY(S2))</f>
@@ -1019,7 +1018,7 @@
       <c r="I3" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <f>DATE(YEAR(S3),MONTH(S3)+6,DAY(S3))</f>
         <v>44743</v>
       </c>
@@ -1062,7 +1061,7 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V16" ca="1" si="4">RANDBETWEEN(500000, 3000000)</f>
-        <v>1923641</v>
+        <v>509310</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" ref="W3:W16" si="5">DATE(YEAR(S3)+1,MONTH(S3),DAY(S3))</f>
@@ -1138,7 +1137,7 @@
       <c r="I4" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <f t="shared" ref="J4:J21" si="7">DATE(YEAR(S4)+1,MONTH(S4),DAY(S4))</f>
         <v>44927</v>
       </c>
@@ -1181,7 +1180,7 @@
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="4"/>
-        <v>1539561</v>
+        <v>2193970</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="5"/>
@@ -1257,7 +1256,7 @@
       <c r="I5" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
@@ -1300,7 +1299,7 @@
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="4"/>
-        <v>2981112</v>
+        <v>2394700</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="5"/>
@@ -1372,7 +1371,7 @@
       <c r="I6" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
@@ -1415,7 +1414,7 @@
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="4"/>
-        <v>2297536</v>
+        <v>661056</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="5"/>
@@ -1487,7 +1486,7 @@
       <c r="I7" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <f>DATE(YEAR(S7),MONTH(S7)+3,DAY(S7))</f>
         <v>44652</v>
       </c>
@@ -1530,7 +1529,7 @@
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="4"/>
-        <v>1729008</v>
+        <v>1792442</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="5"/>
@@ -1602,7 +1601,7 @@
       <c r="I8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <f>DATE(YEAR(S8),MONTH(S8)+6,DAY(S8))</f>
         <v>44743</v>
       </c>
@@ -1645,7 +1644,7 @@
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="4"/>
-        <v>992005</v>
+        <v>694105</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="5"/>
@@ -1721,7 +1720,7 @@
       <c r="I9" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <f>DATE(YEAR(S9),MONTH(S9)+1,DAY(S9))</f>
         <v>44593</v>
       </c>
@@ -1764,7 +1763,7 @@
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="4"/>
-        <v>2707766</v>
+        <v>2715929</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="5"/>
@@ -1840,7 +1839,7 @@
       <c r="I10" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <f t="shared" ref="J10:J14" si="8">DATE(YEAR(S10),MONTH(S10)+1,DAY(S10))</f>
         <v>44593</v>
       </c>
@@ -1883,7 +1882,7 @@
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="4"/>
-        <v>2487277</v>
+        <v>2059337</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="5"/>
@@ -1955,7 +1954,7 @@
       <c r="I11" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="1">
         <f t="shared" si="8"/>
         <v>44593</v>
       </c>
@@ -1998,7 +1997,7 @@
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="4"/>
-        <v>2210409</v>
+        <v>920658</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="5"/>
@@ -2074,7 +2073,7 @@
       <c r="I12" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
@@ -2117,7 +2116,7 @@
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="4"/>
-        <v>2953374</v>
+        <v>1542273</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="5"/>
@@ -2193,7 +2192,7 @@
       <c r="I13" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <f t="shared" si="8"/>
         <v>44593</v>
       </c>
@@ -2236,7 +2235,7 @@
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="4"/>
-        <v>899707</v>
+        <v>2939185</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="5"/>
@@ -2308,7 +2307,7 @@
       <c r="I14" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="1">
         <f t="shared" si="8"/>
         <v>44593</v>
       </c>
@@ -2351,7 +2350,7 @@
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="4"/>
-        <v>648554</v>
+        <v>757208</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="5"/>
@@ -2423,7 +2422,7 @@
       <c r="I15" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
@@ -2466,7 +2465,7 @@
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="4"/>
-        <v>2117564</v>
+        <v>2218108</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="5"/>
@@ -2542,7 +2541,7 @@
       <c r="I16" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
@@ -2585,7 +2584,7 @@
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="4"/>
-        <v>665165</v>
+        <v>1173524</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="5"/>
@@ -2657,7 +2656,7 @@
       <c r="I17" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
@@ -2698,7 +2697,7 @@
         <f>DATE(YEAR(S17)+2, MONTH(S17), DAY(S17))</f>
         <v>45292</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>351822</v>
       </c>
       <c r="W17" s="1">
@@ -2771,7 +2770,7 @@
       <c r="I18" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
@@ -2889,7 +2888,7 @@
       <c r="I19" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
@@ -3007,7 +3006,7 @@
       <c r="I20" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
@@ -3125,7 +3124,7 @@
       <c r="I21" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
@@ -3239,7 +3238,7 @@
       <c r="I22" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="1">
         <f t="shared" ref="J22:J28" si="13">DATE(YEAR(S22)+1,MONTH(S22),DAY(S22))</f>
         <v>44927</v>
       </c>
@@ -3353,7 +3352,7 @@
       <c r="I23" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="1">
         <f t="shared" si="13"/>
         <v>44927</v>
       </c>
@@ -3471,7 +3470,7 @@
       <c r="I24" t="s">
         <v>98</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="1">
         <f t="shared" si="13"/>
         <v>44927</v>
       </c>
@@ -3589,7 +3588,7 @@
       <c r="I25" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="1">
         <f t="shared" si="13"/>
         <v>44927</v>
       </c>
@@ -3630,7 +3629,7 @@
         <f>DATE(YEAR(S25)+10, MONTH(S25), DAY(S25))</f>
         <v>48214</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="3">
         <v>3500000</v>
       </c>
       <c r="W25" s="1">
@@ -3707,7 +3706,7 @@
       <c r="I26" t="s">
         <v>98</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="1">
         <f t="shared" si="13"/>
         <v>44927</v>
       </c>
@@ -3821,7 +3820,7 @@
       <c r="I27" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="1">
         <f t="shared" si="13"/>
         <v>44927</v>
       </c>
@@ -3935,7 +3934,7 @@
       <c r="I28" t="s">
         <v>98</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="1">
         <f t="shared" si="13"/>
         <v>44927</v>
       </c>

--- a/src/data/bankA/ANN_Portfolio.xlsx
+++ b/src/data/bankA/ANN_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viganhamzai/Documents/ZHAW_WI/07_Semester/PA/PA_FEMS/src/data/bankA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B126D1B-46FE-9A4E-A075-BA8E4FAB5FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0361944-515D-DA4C-A1C7-D83765A93B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2827F415-5853-FE46-AE22-EC4475DFFC5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="102">
   <si>
     <t>calendar</t>
   </si>
@@ -161,9 +161,6 @@
     <t>ALM0001</t>
   </si>
   <si>
-    <t>P1ML1</t>
-  </si>
-  <si>
     <t>30E360</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>4 years mortgage with variable rate</t>
   </si>
   <si>
-    <t>P6ML1</t>
-  </si>
-  <si>
     <t>6 years mortgage with variable rate</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
   </si>
   <si>
     <t>3 years mortgage with nominal interest</t>
-  </si>
-  <si>
-    <t>P3ML1</t>
   </si>
   <si>
     <t>2 years mortgage with variable rate + spread x</t>
@@ -716,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF54409-75AA-D240-BC62-D87145E7C900}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J28"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,29 +888,29 @@
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1">
         <f>DATE(YEAR(S2)+1,MONTH(S2),DAY(S2))</f>
         <v>44927</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2">
         <v>0.03</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" ref="Q2:Q16" si="0">U2</f>
@@ -942,14 +933,14 @@
       </c>
       <c r="V2">
         <f ca="1">RANDBETWEEN(500000, 3000000)</f>
-        <v>1668220</v>
+        <v>1343424</v>
       </c>
       <c r="W2" s="1">
         <f>DATE(YEAR(S2)+1,MONTH(S2),DAY(S2))</f>
         <v>44927</v>
       </c>
       <c r="X2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y2" t="s">
         <v>37</v>
@@ -962,22 +953,22 @@
         <v>44561</v>
       </c>
       <c r="AB2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>61</v>
-      </c>
       <c r="AE2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF2">
         <v>1</v>
       </c>
       <c r="AG2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH2" t="s">
         <v>37</v>
@@ -1013,32 +1004,32 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1">
-        <f>DATE(YEAR(S3),MONTH(S3)+6,DAY(S3))</f>
-        <v>44743</v>
+        <f>DATE(YEAR(S3)+1,MONTH(S3),DAY(S3))</f>
+        <v>44927</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L3">
         <v>0.03</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
         <v>42</v>
       </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>43</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
@@ -1061,14 +1052,14 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V16" ca="1" si="4">RANDBETWEEN(500000, 3000000)</f>
-        <v>509310</v>
+        <v>999921</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" ref="W3:W16" si="5">DATE(YEAR(S3)+1,MONTH(S3),DAY(S3))</f>
         <v>44927</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
         <v>37</v>
@@ -1081,22 +1072,22 @@
         <v>44561</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AC3" t="s">
         <v>37</v>
       </c>
       <c r="AD3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF3">
         <v>1</v>
       </c>
       <c r="AG3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AH3" t="s">
         <v>37</v>
@@ -1132,32 +1123,32 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J21" si="7">DATE(YEAR(S4)+1,MONTH(S4),DAY(S4))</f>
+        <f t="shared" ref="J4:J28" si="7">DATE(YEAR(S4)+1,MONTH(S4),DAY(S4))</f>
         <v>44927</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4">
         <v>0.04</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>43</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
@@ -1180,14 +1171,14 @@
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="4"/>
-        <v>2193970</v>
+        <v>539660</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y4" t="s">
         <v>37</v>
@@ -1200,22 +1191,22 @@
         <v>44561</v>
       </c>
       <c r="AB4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s">
         <v>60</v>
       </c>
-      <c r="AC4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>61</v>
-      </c>
       <c r="AE4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF4">
         <v>1</v>
       </c>
       <c r="AG4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AH4" t="s">
         <v>37</v>
@@ -1251,32 +1242,32 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5">
         <v>0.04</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
         <v>42</v>
       </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>43</v>
-      </c>
-      <c r="P5" t="s">
-        <v>44</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
@@ -1299,14 +1290,14 @@
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="4"/>
-        <v>2394700</v>
+        <v>1506057</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y5" t="s">
         <v>37</v>
@@ -1324,13 +1315,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF5">
         <v>1</v>
       </c>
       <c r="AG5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AH5" t="s">
         <v>37</v>
@@ -1366,32 +1357,32 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6">
         <v>0.03</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>43</v>
-      </c>
-      <c r="P6" t="s">
-        <v>44</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
@@ -1414,14 +1405,14 @@
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="4"/>
-        <v>661056</v>
+        <v>2445612</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y6" t="s">
         <v>37</v>
@@ -1439,13 +1430,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF6">
         <v>1</v>
       </c>
       <c r="AG6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AH6" t="s">
         <v>37</v>
@@ -1481,32 +1472,32 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1">
-        <f>DATE(YEAR(S7),MONTH(S7)+3,DAY(S7))</f>
-        <v>44652</v>
+        <f t="shared" si="7"/>
+        <v>44927</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L7">
         <v>0.02</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
         <v>42</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>43</v>
-      </c>
-      <c r="P7" t="s">
-        <v>44</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="0"/>
@@ -1529,14 +1520,14 @@
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="4"/>
-        <v>1792442</v>
+        <v>1150247</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y7" t="s">
         <v>37</v>
@@ -1554,13 +1545,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF7">
         <v>1</v>
       </c>
       <c r="AG7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AH7" t="s">
         <v>37</v>
@@ -1596,32 +1587,32 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J8" s="1">
-        <f>DATE(YEAR(S8),MONTH(S8)+6,DAY(S8))</f>
-        <v>44743</v>
+        <f t="shared" si="7"/>
+        <v>44927</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L8">
         <v>0.02</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
         <v>42</v>
       </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>43</v>
-      </c>
-      <c r="P8" t="s">
-        <v>44</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="0"/>
@@ -1644,14 +1635,14 @@
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="4"/>
-        <v>694105</v>
+        <v>1171330</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y8" t="s">
         <v>37</v>
@@ -1664,22 +1655,22 @@
         <v>44561</v>
       </c>
       <c r="AB8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AC8">
         <v>0.04</v>
       </c>
       <c r="AD8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF8">
         <v>1</v>
       </c>
       <c r="AG8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AH8" t="s">
         <v>37</v>
@@ -1715,32 +1706,32 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J9" s="1">
-        <f>DATE(YEAR(S9),MONTH(S9)+1,DAY(S9))</f>
-        <v>44593</v>
+        <f t="shared" si="7"/>
+        <v>44927</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L9">
         <v>0.03</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
         <v>42</v>
       </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>43</v>
-      </c>
-      <c r="P9" t="s">
-        <v>44</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="0"/>
@@ -1763,14 +1754,14 @@
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="4"/>
-        <v>2715929</v>
+        <v>2688990</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y9" t="s">
         <v>37</v>
@@ -1783,22 +1774,22 @@
         <v>44561</v>
       </c>
       <c r="AB9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AC9">
         <v>0.04</v>
       </c>
       <c r="AD9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF9">
         <v>1</v>
       </c>
       <c r="AG9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AH9" t="s">
         <v>37</v>
@@ -1834,32 +1825,32 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" ref="J10:J14" si="8">DATE(YEAR(S10),MONTH(S10)+1,DAY(S10))</f>
-        <v>44593</v>
+        <f t="shared" si="7"/>
+        <v>44927</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L10">
         <v>0.04</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="s">
         <v>42</v>
       </c>
-      <c r="N10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>43</v>
-      </c>
-      <c r="P10" t="s">
-        <v>44</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="0"/>
@@ -1882,14 +1873,14 @@
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="4"/>
-        <v>2059337</v>
+        <v>559018</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y10" t="s">
         <v>37</v>
@@ -1907,13 +1898,13 @@
         <v>0.04</v>
       </c>
       <c r="AE10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF10">
         <v>1</v>
       </c>
       <c r="AG10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AH10" t="s">
         <v>37</v>
@@ -1949,32 +1940,32 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="8"/>
-        <v>44593</v>
+        <f t="shared" si="7"/>
+        <v>44927</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L11">
         <v>0.03</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
         <v>42</v>
       </c>
-      <c r="N11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>43</v>
-      </c>
-      <c r="P11" t="s">
-        <v>44</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="0"/>
@@ -1997,14 +1988,14 @@
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="4"/>
-        <v>920658</v>
+        <v>2469413</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y11" t="s">
         <v>37</v>
@@ -2017,22 +2008,22 @@
         <v>44561</v>
       </c>
       <c r="AB11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC11">
         <v>0.05</v>
       </c>
       <c r="AD11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF11">
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH11" t="s">
         <v>37</v>
@@ -2068,32 +2059,32 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12">
         <v>0.03</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="s">
         <v>42</v>
       </c>
-      <c r="N12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>43</v>
-      </c>
-      <c r="P12" t="s">
-        <v>44</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="0"/>
@@ -2116,14 +2107,14 @@
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="4"/>
-        <v>1542273</v>
+        <v>1625000</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y12" t="s">
         <v>37</v>
@@ -2136,22 +2127,22 @@
         <v>44561</v>
       </c>
       <c r="AB12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AC12">
         <v>0.06</v>
       </c>
       <c r="AD12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF12">
         <v>1</v>
       </c>
       <c r="AG12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH12" t="s">
         <v>37</v>
@@ -2187,32 +2178,32 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="8"/>
-        <v>44593</v>
+        <f t="shared" si="7"/>
+        <v>44927</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L13">
         <v>0.02</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" t="s">
         <v>42</v>
       </c>
-      <c r="N13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>43</v>
-      </c>
-      <c r="P13" t="s">
-        <v>44</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="0"/>
@@ -2235,14 +2226,14 @@
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="4"/>
-        <v>2939185</v>
+        <v>2944015</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y13" t="s">
         <v>37</v>
@@ -2260,13 +2251,13 @@
         <v>0.05</v>
       </c>
       <c r="AE13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF13">
         <v>1</v>
       </c>
       <c r="AG13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s">
         <v>37</v>
@@ -2302,32 +2293,32 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="8"/>
-        <v>44593</v>
+        <f t="shared" si="7"/>
+        <v>44927</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L14">
         <v>0.04</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" t="s">
         <v>42</v>
       </c>
-      <c r="N14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>43</v>
-      </c>
-      <c r="P14" t="s">
-        <v>44</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="0"/>
@@ -2350,14 +2341,14 @@
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="4"/>
-        <v>757208</v>
+        <v>1828564</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y14" t="s">
         <v>37</v>
@@ -2375,13 +2366,13 @@
         <v>0.06</v>
       </c>
       <c r="AE14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF14">
         <v>1</v>
       </c>
       <c r="AG14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s">
         <v>37</v>
@@ -2417,32 +2408,32 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15">
         <v>0.04</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
         <v>42</v>
       </c>
-      <c r="N15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>43</v>
-      </c>
-      <c r="P15" t="s">
-        <v>44</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="0"/>
@@ -2465,14 +2456,14 @@
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="4"/>
-        <v>2218108</v>
+        <v>2385355</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y15" t="s">
         <v>37</v>
@@ -2485,22 +2476,22 @@
         <v>44561</v>
       </c>
       <c r="AB15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD15" t="s">
         <v>60</v>
       </c>
-      <c r="AC15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>61</v>
-      </c>
       <c r="AE15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF15">
         <v>1</v>
       </c>
       <c r="AG15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s">
         <v>37</v>
@@ -2536,32 +2527,32 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16">
         <v>0.03</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" t="s">
         <v>42</v>
       </c>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>43</v>
-      </c>
-      <c r="P16" t="s">
-        <v>44</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="0"/>
@@ -2584,14 +2575,14 @@
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="4"/>
-        <v>1173524</v>
+        <v>2745735</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="5"/>
         <v>44927</v>
       </c>
       <c r="X16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y16" t="s">
         <v>37</v>
@@ -2609,13 +2600,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF16">
         <v>1</v>
       </c>
       <c r="AG16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s">
         <v>37</v>
@@ -2651,39 +2642,39 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L17">
         <v>0.02</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" t="s">
         <v>42</v>
       </c>
-      <c r="N17" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>43</v>
       </c>
-      <c r="P17" t="s">
-        <v>44</v>
-      </c>
       <c r="Q17" s="1">
-        <f t="shared" ref="Q17:Q28" si="9">U17</f>
+        <f t="shared" ref="Q17:Q28" si="8">U17</f>
         <v>45292</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" ref="R17:R23" si="10">E17</f>
+        <f t="shared" ref="R17:R23" si="9">E17</f>
         <v>44561</v>
       </c>
       <c r="S17" s="1">
@@ -2705,7 +2696,7 @@
         <v>44927</v>
       </c>
       <c r="X17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y17" t="s">
         <v>37</v>
@@ -2723,13 +2714,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF17">
         <v>1</v>
       </c>
       <c r="AG17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s">
         <v>37</v>
@@ -2765,39 +2756,39 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L18">
         <v>0.03</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" t="s">
         <v>42</v>
       </c>
-      <c r="N18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>43</v>
       </c>
-      <c r="P18" t="s">
-        <v>44</v>
-      </c>
       <c r="Q18" s="1">
+        <f t="shared" si="8"/>
+        <v>46388</v>
+      </c>
+      <c r="R18" s="1">
         <f t="shared" si="9"/>
-        <v>46388</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S18" s="1">
@@ -2815,39 +2806,39 @@
         <v>550000</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ref="W18:W23" si="11">DATE(YEAR(S18)+1,MONTH(S18),DAY(S18))</f>
+        <f t="shared" ref="W18:W23" si="10">DATE(YEAR(S18)+1,MONTH(S18),DAY(S18))</f>
         <v>44927</v>
       </c>
       <c r="X18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" ref="AA18:AA20" si="11">R18</f>
+        <v>44561</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD18" t="s">
         <v>60</v>
       </c>
-      <c r="Y18" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA18" s="1">
-        <f t="shared" ref="AA18:AA20" si="12">R18</f>
-        <v>44561</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>61</v>
-      </c>
       <c r="AE18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF18">
         <v>1</v>
       </c>
       <c r="AG18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s">
         <v>37</v>
@@ -2883,39 +2874,39 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L19">
         <v>0.03</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
         <v>42</v>
       </c>
-      <c r="N19" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>43</v>
       </c>
-      <c r="P19" t="s">
-        <v>44</v>
-      </c>
       <c r="Q19" s="1">
+        <f t="shared" si="8"/>
+        <v>46023</v>
+      </c>
+      <c r="R19" s="1">
         <f t="shared" si="9"/>
-        <v>46023</v>
-      </c>
-      <c r="R19" s="1">
-        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S19" s="1">
@@ -2933,39 +2924,39 @@
         <v>725000</v>
       </c>
       <c r="W19" s="1">
+        <f t="shared" si="10"/>
+        <v>44927</v>
+      </c>
+      <c r="X19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA19" s="1">
         <f t="shared" si="11"/>
-        <v>44927</v>
-      </c>
-      <c r="X19" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA19" s="1">
-        <f t="shared" si="12"/>
         <v>44561</v>
       </c>
       <c r="AB19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AC19">
         <v>0.02</v>
       </c>
       <c r="AD19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF19">
         <v>1</v>
       </c>
       <c r="AG19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s">
         <v>37</v>
@@ -3001,39 +2992,39 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L20">
         <v>0.03</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
         <v>42</v>
       </c>
-      <c r="N20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>43</v>
       </c>
-      <c r="P20" t="s">
-        <v>44</v>
-      </c>
       <c r="Q20" s="1">
+        <f t="shared" si="8"/>
+        <v>47119</v>
+      </c>
+      <c r="R20" s="1">
         <f t="shared" si="9"/>
-        <v>47119</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S20" s="1">
@@ -3051,39 +3042,39 @@
         <v>225000</v>
       </c>
       <c r="W20" s="1">
+        <f t="shared" si="10"/>
+        <v>44927</v>
+      </c>
+      <c r="X20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA20" s="1">
         <f t="shared" si="11"/>
-        <v>44927</v>
-      </c>
-      <c r="X20" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA20" s="1">
-        <f t="shared" si="12"/>
         <v>44561</v>
       </c>
       <c r="AB20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC20">
         <v>0.03</v>
       </c>
       <c r="AD20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF20">
         <v>1</v>
       </c>
       <c r="AG20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s">
         <v>37</v>
@@ -3119,39 +3110,39 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L21">
         <v>0.03</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
         <v>42</v>
       </c>
-      <c r="N21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>43</v>
       </c>
-      <c r="P21" t="s">
-        <v>44</v>
-      </c>
       <c r="Q21" s="1">
+        <f t="shared" si="8"/>
+        <v>46753</v>
+      </c>
+      <c r="R21" s="1">
         <f t="shared" si="9"/>
-        <v>46753</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S21" s="1">
@@ -3169,11 +3160,11 @@
         <v>500000</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>44927</v>
       </c>
       <c r="X21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y21" t="s">
         <v>37</v>
@@ -3191,13 +3182,13 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF21">
         <v>1</v>
       </c>
       <c r="AG21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s">
         <v>37</v>
@@ -3233,39 +3224,39 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" ref="J22:J28" si="13">DATE(YEAR(S22)+1,MONTH(S22),DAY(S22))</f>
+        <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L22">
         <v>0.04</v>
       </c>
       <c r="M22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" t="s">
         <v>42</v>
       </c>
-      <c r="N22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>43</v>
       </c>
-      <c r="P22" t="s">
-        <v>44</v>
-      </c>
       <c r="Q22" s="1">
+        <f t="shared" si="8"/>
+        <v>48214</v>
+      </c>
+      <c r="R22" s="1">
         <f t="shared" si="9"/>
-        <v>48214</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S22" s="1">
@@ -3283,11 +3274,11 @@
         <v>1450000</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>44927</v>
       </c>
       <c r="X22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y22" t="s">
         <v>37</v>
@@ -3305,13 +3296,13 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF22">
         <v>1</v>
       </c>
       <c r="AG22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s">
         <v>37</v>
@@ -3347,39 +3338,39 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L23">
         <v>0.04</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" t="s">
         <v>42</v>
       </c>
-      <c r="N23" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>43</v>
       </c>
-      <c r="P23" t="s">
-        <v>44</v>
-      </c>
       <c r="Q23" s="1">
+        <f t="shared" si="8"/>
+        <v>47484</v>
+      </c>
+      <c r="R23" s="1">
         <f t="shared" si="9"/>
-        <v>47484</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S23" s="1">
@@ -3397,11 +3388,11 @@
         <v>550000</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>44927</v>
       </c>
       <c r="X23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y23" t="s">
         <v>37</v>
@@ -3410,26 +3401,26 @@
         <v>37</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" ref="AA23:AA25" si="14">R23</f>
+        <f t="shared" ref="AA23:AA25" si="12">R23</f>
         <v>44561</v>
       </c>
       <c r="AB23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC23">
         <v>0.01</v>
       </c>
       <c r="AD23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF23">
         <v>1</v>
       </c>
       <c r="AG23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s">
         <v>37</v>
@@ -3459,45 +3450,45 @@
         <v>44561</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L24">
         <v>0.03</v>
       </c>
       <c r="M24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" t="s">
         <v>42</v>
       </c>
-      <c r="N24" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>43</v>
       </c>
-      <c r="P24" t="s">
-        <v>44</v>
-      </c>
       <c r="Q24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>46388</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ref="R24:R28" si="15">E24</f>
+        <f t="shared" ref="R24:R28" si="13">E24</f>
         <v>44561</v>
       </c>
       <c r="S24" s="1">
@@ -3515,11 +3506,11 @@
         <v>1500000</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ref="W24:W28" si="16">DATE(YEAR(S24)+1,MONTH(S24),DAY(S24))</f>
+        <f t="shared" ref="W24:W28" si="14">DATE(YEAR(S24)+1,MONTH(S24),DAY(S24))</f>
         <v>44927</v>
       </c>
       <c r="X24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y24" t="s">
         <v>37</v>
@@ -3528,26 +3519,26 @@
         <v>37</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>44561</v>
       </c>
       <c r="AB24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AC24">
         <v>0.02</v>
       </c>
       <c r="AD24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF24">
         <v>1</v>
       </c>
       <c r="AG24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AH24" t="s">
         <v>37</v>
@@ -3577,45 +3568,45 @@
         <v>44561</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
         <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L25">
         <v>0.04</v>
       </c>
       <c r="M25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" t="s">
         <v>42</v>
       </c>
-      <c r="N25" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>43</v>
       </c>
-      <c r="P25" t="s">
-        <v>44</v>
-      </c>
       <c r="Q25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>48214</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>44561</v>
       </c>
       <c r="S25" s="1">
@@ -3633,11 +3624,11 @@
         <v>3500000</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>44927</v>
       </c>
       <c r="X25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y25" t="s">
         <v>37</v>
@@ -3646,26 +3637,26 @@
         <v>37</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>44561</v>
       </c>
       <c r="AB25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC25">
         <v>0.03</v>
       </c>
       <c r="AD25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF25">
         <v>1</v>
       </c>
       <c r="AG25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AH25" t="s">
         <v>37</v>
@@ -3695,45 +3686,45 @@
         <v>44561</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
       </c>
       <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" t="s">
         <v>95</v>
       </c>
-      <c r="I26" t="s">
-        <v>98</v>
-      </c>
       <c r="J26" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L26">
         <v>0.03</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" t="s">
         <v>42</v>
       </c>
-      <c r="N26" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>43</v>
       </c>
-      <c r="P26" t="s">
-        <v>44</v>
-      </c>
       <c r="Q26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>47119</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>44561</v>
       </c>
       <c r="S26" s="1">
@@ -3751,11 +3742,11 @@
         <v>2000000</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>44927</v>
       </c>
       <c r="X26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y26" t="s">
         <v>37</v>
@@ -3773,13 +3764,13 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF26">
         <v>1</v>
       </c>
       <c r="AG26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AH26" t="s">
         <v>37</v>
@@ -3809,45 +3800,45 @@
         <v>44561</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L27">
         <v>0.02</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" t="s">
         <v>42</v>
       </c>
-      <c r="N27" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>43</v>
       </c>
-      <c r="P27" t="s">
-        <v>44</v>
-      </c>
       <c r="Q27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>45292</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>44561</v>
       </c>
       <c r="S27" s="1">
@@ -3865,11 +3856,11 @@
         <v>1250000</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>44927</v>
       </c>
       <c r="X27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y27" t="s">
         <v>37</v>
@@ -3887,13 +3878,13 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF27">
         <v>1</v>
       </c>
       <c r="AG27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AH27" t="s">
         <v>37</v>
@@ -3923,45 +3914,45 @@
         <v>44561</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>44927</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L28">
         <v>0.02</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" t="s">
         <v>42</v>
       </c>
-      <c r="N28" t="s">
-        <v>37</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>43</v>
       </c>
-      <c r="P28" t="s">
-        <v>44</v>
-      </c>
       <c r="Q28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>45658</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>44561</v>
       </c>
       <c r="S28" s="1">
@@ -3979,11 +3970,11 @@
         <v>1750000</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>44927</v>
       </c>
       <c r="X28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y28" t="s">
         <v>37</v>
@@ -3992,26 +3983,26 @@
         <v>37</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" ref="AA28" si="17">R28</f>
+        <f t="shared" ref="AA28" si="15">R28</f>
         <v>44561</v>
       </c>
       <c r="AB28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC28">
         <v>0.01</v>
       </c>
       <c r="AD28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF28">
         <v>1</v>
       </c>
       <c r="AG28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AH28" t="s">
         <v>37</v>

--- a/src/data/bankA/ANN_Portfolio.xlsx
+++ b/src/data/bankA/ANN_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viganhamzai/Documents/ZHAW_WI/07_Semester/PA/PA_FEMS/src/data/bankA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0361944-515D-DA4C-A1C7-D83765A93B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F23ADA8-CE6C-7E45-9508-1F644A6BC231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2827F415-5853-FE46-AE22-EC4475DFFC5F}"/>
   </bookViews>
@@ -218,9 +218,6 @@
     <t>P1YL1</t>
   </si>
   <si>
-    <t>YC_EA_AAA</t>
-  </si>
-  <si>
     <t>4 years mortgage with variable rate</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>3 years loan to bank with variable rate + spread</t>
+  </si>
+  <si>
+    <t>YC_CTRS</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,7 +888,7 @@
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="1">
         <f>DATE(YEAR(S2)+1,MONTH(S2),DAY(S2))</f>
@@ -933,7 +933,7 @@
       </c>
       <c r="V2">
         <f ca="1">RANDBETWEEN(500000, 3000000)</f>
-        <v>1343424</v>
+        <v>1004363</v>
       </c>
       <c r="W2" s="1">
         <f>DATE(YEAR(S2)+1,MONTH(S2),DAY(S2))</f>
@@ -959,7 +959,7 @@
         <v>37</v>
       </c>
       <c r="AD2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE2" t="s">
         <v>44</v>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="AG2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH2" t="s">
         <v>37</v>
@@ -1007,7 +1007,7 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="1">
         <f>DATE(YEAR(S3)+1,MONTH(S3),DAY(S3))</f>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V16" ca="1" si="4">RANDBETWEEN(500000, 3000000)</f>
-        <v>999921</v>
+        <v>1100631</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" ref="W3:W16" si="5">DATE(YEAR(S3)+1,MONTH(S3),DAY(S3))</f>
@@ -1078,7 +1078,7 @@
         <v>37</v>
       </c>
       <c r="AD3" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE3" t="s">
         <v>44</v>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="AG3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH3" t="s">
         <v>37</v>
@@ -1126,7 +1126,7 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4:J28" si="7">DATE(YEAR(S4)+1,MONTH(S4),DAY(S4))</f>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="4"/>
-        <v>539660</v>
+        <v>748756</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="5"/>
@@ -1197,7 +1197,7 @@
         <v>37</v>
       </c>
       <c r="AD4" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE4" t="s">
         <v>44</v>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="AG4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AH4" t="s">
         <v>37</v>
@@ -1245,7 +1245,7 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="7"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="4"/>
-        <v>1506057</v>
+        <v>1563347</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="5"/>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="AG5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AH5" t="s">
         <v>37</v>
@@ -1360,7 +1360,7 @@
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="7"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="4"/>
-        <v>2445612</v>
+        <v>2349075</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="5"/>
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="AG6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AH6" t="s">
         <v>37</v>
@@ -1475,7 +1475,7 @@
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="7"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="4"/>
-        <v>1150247</v>
+        <v>1352094</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="5"/>
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="AG7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AH7" t="s">
         <v>37</v>
@@ -1590,7 +1590,7 @@
         <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="7"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="4"/>
-        <v>1171330</v>
+        <v>1092548</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="5"/>
@@ -1661,7 +1661,7 @@
         <v>0.04</v>
       </c>
       <c r="AD8" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE8" t="s">
         <v>44</v>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="AG8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH8" t="s">
         <v>37</v>
@@ -1709,7 +1709,7 @@
         <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="7"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="4"/>
-        <v>2688990</v>
+        <v>2069333</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="5"/>
@@ -1780,7 +1780,7 @@
         <v>0.04</v>
       </c>
       <c r="AD9" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE9" t="s">
         <v>44</v>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="AG9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH9" t="s">
         <v>37</v>
@@ -1828,7 +1828,7 @@
         <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="7"/>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="4"/>
-        <v>559018</v>
+        <v>721979</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="5"/>
@@ -1904,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="AG10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH10" t="s">
         <v>37</v>
@@ -1943,7 +1943,7 @@
         <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="7"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="4"/>
-        <v>2469413</v>
+        <v>683474</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="5"/>
@@ -2014,7 +2014,7 @@
         <v>0.05</v>
       </c>
       <c r="AD11" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE11" t="s">
         <v>44</v>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH11" t="s">
         <v>37</v>
@@ -2062,7 +2062,7 @@
         <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="7"/>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="4"/>
-        <v>1625000</v>
+        <v>764795</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="5"/>
@@ -2133,7 +2133,7 @@
         <v>0.06</v>
       </c>
       <c r="AD12" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE12" t="s">
         <v>44</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AG12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH12" t="s">
         <v>37</v>
@@ -2181,7 +2181,7 @@
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="7"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="4"/>
-        <v>2944015</v>
+        <v>1255156</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="5"/>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="AG13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH13" t="s">
         <v>37</v>
@@ -2296,7 +2296,7 @@
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="7"/>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="4"/>
-        <v>1828564</v>
+        <v>1973458</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="5"/>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="AG14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s">
         <v>37</v>
@@ -2411,7 +2411,7 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="7"/>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="4"/>
-        <v>2385355</v>
+        <v>1368331</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="5"/>
@@ -2482,7 +2482,7 @@
         <v>37</v>
       </c>
       <c r="AD15" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE15" t="s">
         <v>44</v>
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="AG15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s">
         <v>37</v>
@@ -2530,7 +2530,7 @@
         <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="7"/>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="4"/>
-        <v>2745735</v>
+        <v>1839527</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="5"/>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="AG16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s">
         <v>37</v>
@@ -2642,10 +2642,10 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="7"/>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="AG17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s">
         <v>37</v>
@@ -2756,10 +2756,10 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="7"/>
@@ -2829,7 +2829,7 @@
         <v>37</v>
       </c>
       <c r="AD18" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE18" t="s">
         <v>44</v>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="AG18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s">
         <v>37</v>
@@ -2874,10 +2874,10 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="7"/>
@@ -2947,7 +2947,7 @@
         <v>0.02</v>
       </c>
       <c r="AD19" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE19" t="s">
         <v>44</v>
@@ -2956,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="AG19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s">
         <v>37</v>
@@ -2992,10 +2992,10 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="7"/>
@@ -3065,7 +3065,7 @@
         <v>0.03</v>
       </c>
       <c r="AD20" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE20" t="s">
         <v>44</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="AG20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s">
         <v>37</v>
@@ -3110,10 +3110,10 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="7"/>
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="AG21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s">
         <v>37</v>
@@ -3224,10 +3224,10 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="7"/>
@@ -3302,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="AG22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s">
         <v>37</v>
@@ -3338,10 +3338,10 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="7"/>
@@ -3411,7 +3411,7 @@
         <v>0.01</v>
       </c>
       <c r="AD23" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE23" t="s">
         <v>44</v>
@@ -3420,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="AG23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s">
         <v>37</v>
@@ -3450,16 +3450,16 @@
         <v>44561</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="7"/>
@@ -3529,7 +3529,7 @@
         <v>0.02</v>
       </c>
       <c r="AD24" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE24" t="s">
         <v>44</v>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="AG24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH24" t="s">
         <v>37</v>
@@ -3568,16 +3568,16 @@
         <v>44561</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
         <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="7"/>
@@ -3647,7 +3647,7 @@
         <v>0.03</v>
       </c>
       <c r="AD25" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE25" t="s">
         <v>44</v>
@@ -3656,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="AG25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH25" t="s">
         <v>37</v>
@@ -3686,16 +3686,16 @@
         <v>44561</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="7"/>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="AG26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AH26" t="s">
         <v>37</v>
@@ -3800,16 +3800,16 @@
         <v>44561</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="7"/>
@@ -3884,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="AG27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH27" t="s">
         <v>37</v>
@@ -3914,16 +3914,16 @@
         <v>44561</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
       </c>
       <c r="H28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" t="s">
         <v>94</v>
-      </c>
-      <c r="I28" t="s">
-        <v>95</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="7"/>
@@ -3993,7 +3993,7 @@
         <v>0.01</v>
       </c>
       <c r="AD28" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE28" t="s">
         <v>44</v>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="AG28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH28" t="s">
         <v>37</v>

--- a/src/data/bankA/ANN_Portfolio.xlsx
+++ b/src/data/bankA/ANN_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viganhamzai/Documents/ZHAW_WI/07_Semester/PA/PA_FEMS/src/data/bankA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F23ADA8-CE6C-7E45-9508-1F644A6BC231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8716DF2-6240-A84B-8965-EA426418246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2827F415-5853-FE46-AE22-EC4475DFFC5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="102">
   <si>
     <t>calendar</t>
   </si>
@@ -390,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF54409-75AA-D240-BC62-D87145E7C900}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AD28" sqref="AD28"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -931,9 +931,9 @@
         <f>DATE(YEAR(S2)+4, MONTH(S2), DAY(S2))</f>
         <v>46023</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="3">
         <f ca="1">RANDBETWEEN(500000, 3000000)</f>
-        <v>1004363</v>
+        <v>2952871</v>
       </c>
       <c r="W2" s="1">
         <f>DATE(YEAR(S2)+1,MONTH(S2),DAY(S2))</f>
@@ -1050,9 +1050,9 @@
         <f>DATE(YEAR(S3)+6, MONTH(S3), DAY(S3))</f>
         <v>46753</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="3">
         <f t="shared" ref="V3:V16" ca="1" si="4">RANDBETWEEN(500000, 3000000)</f>
-        <v>1100631</v>
+        <v>1160480</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" ref="W3:W16" si="5">DATE(YEAR(S3)+1,MONTH(S3),DAY(S3))</f>
@@ -1169,9 +1169,9 @@
         <f>DATE(YEAR(S4)+10, MONTH(S4), DAY(S4))</f>
         <v>48214</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>748756</v>
+        <v>526197</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="5"/>
@@ -1288,9 +1288,9 @@
         <f>DATE(YEAR(S5)+9, MONTH(S5), DAY(S5))</f>
         <v>47849</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1563347</v>
+        <v>1793116</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="5"/>
@@ -1312,6 +1312,9 @@
         <v>37</v>
       </c>
       <c r="AC5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" t="s">
         <v>37</v>
       </c>
       <c r="AE5" t="s">
@@ -1403,9 +1406,9 @@
         <f>DATE(YEAR(S6)+5, MONTH(S6), DAY(S6))</f>
         <v>46388</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2349075</v>
+        <v>1382899</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="5"/>
@@ -1427,6 +1430,9 @@
         <v>37</v>
       </c>
       <c r="AC6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" t="s">
         <v>37</v>
       </c>
       <c r="AE6" t="s">
@@ -1518,9 +1524,9 @@
         <f>DATE(YEAR(S7)+3, MONTH(S7), DAY(S7))</f>
         <v>45658</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1352094</v>
+        <v>2084005</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="5"/>
@@ -1542,6 +1548,9 @@
         <v>37</v>
       </c>
       <c r="AC7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7" t="s">
         <v>37</v>
       </c>
       <c r="AE7" t="s">
@@ -1633,9 +1642,9 @@
         <f>DATE(YEAR(S8)+2, MONTH(S8), DAY(S8))</f>
         <v>45292</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1092548</v>
+        <v>719439</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="5"/>
@@ -1752,9 +1761,9 @@
         <f>DATE(YEAR(S9)+7, MONTH(S9), DAY(S9))</f>
         <v>47119</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2069333</v>
+        <v>1684805</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="5"/>
@@ -1871,9 +1880,9 @@
         <f>DATE(YEAR(S10)+8, MONTH(S10), DAY(S10))</f>
         <v>47484</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>721979</v>
+        <v>2583268</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="5"/>
@@ -1896,6 +1905,9 @@
       </c>
       <c r="AC10">
         <v>0.04</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>37</v>
       </c>
       <c r="AE10" t="s">
         <v>44</v>
@@ -1986,9 +1998,9 @@
         <f>DATE(YEAR(S11)+5, MONTH(S11), DAY(S11))</f>
         <v>46388</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>683474</v>
+        <v>693912</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="5"/>
@@ -2105,9 +2117,9 @@
         <f>DATE(YEAR(S12)+4, MONTH(S12), DAY(S12))</f>
         <v>46023</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>764795</v>
+        <v>542812</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="5"/>
@@ -2224,9 +2236,9 @@
         <f>DATE(YEAR(S13)+2, MONTH(S13), DAY(S13))</f>
         <v>45292</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1255156</v>
+        <v>1873304</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="5"/>
@@ -2249,6 +2261,9 @@
       </c>
       <c r="AC13">
         <v>0.05</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>37</v>
       </c>
       <c r="AE13" t="s">
         <v>44</v>
@@ -2339,9 +2354,9 @@
         <f>DATE(YEAR(S14)+9, MONTH(S14), DAY(S14))</f>
         <v>47849</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1973458</v>
+        <v>2883905</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="5"/>
@@ -2364,6 +2379,9 @@
       </c>
       <c r="AC14">
         <v>0.06</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>37</v>
       </c>
       <c r="AE14" t="s">
         <v>44</v>
@@ -2454,9 +2472,9 @@
         <f>DATE(YEAR(S15)+8, MONTH(S15), DAY(S15))</f>
         <v>47484</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1368331</v>
+        <v>2359243</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="5"/>
@@ -2573,9 +2591,9 @@
         <f>DATE(YEAR(S16)+6, MONTH(S16), DAY(S16))</f>
         <v>46753</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1839527</v>
+        <v>1241887</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="5"/>
@@ -2597,6 +2615,9 @@
         <v>37</v>
       </c>
       <c r="AC16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD16" t="s">
         <v>37</v>
       </c>
       <c r="AE16" t="s">
@@ -2713,6 +2734,9 @@
       <c r="AC17" t="s">
         <v>37</v>
       </c>
+      <c r="AD17" t="s">
+        <v>37</v>
+      </c>
       <c r="AE17" t="s">
         <v>44</v>
       </c>
@@ -2802,7 +2826,7 @@
         <f>DATE(YEAR(S18)+5, MONTH(S18), DAY(S18))</f>
         <v>46388</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="3">
         <v>550000</v>
       </c>
       <c r="W18" s="1">
@@ -2920,7 +2944,7 @@
         <f>DATE(YEAR(S19)+4, MONTH(S19), DAY(S19))</f>
         <v>46023</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="3">
         <v>725000</v>
       </c>
       <c r="W19" s="1">
@@ -3038,7 +3062,7 @@
         <f>DATE(YEAR(S20)+7, MONTH(S20), DAY(S20))</f>
         <v>47119</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="3">
         <v>225000</v>
       </c>
       <c r="W20" s="1">
@@ -3156,7 +3180,7 @@
         <f>DATE(YEAR(S21)+6, MONTH(S21), DAY(S21))</f>
         <v>46753</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="3">
         <v>500000</v>
       </c>
       <c r="W21" s="1">
@@ -3179,6 +3203,9 @@
         <v>37</v>
       </c>
       <c r="AC21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD21" t="s">
         <v>37</v>
       </c>
       <c r="AE21" t="s">
@@ -3270,7 +3297,7 @@
         <f>DATE(YEAR(S22)+10, MONTH(S22), DAY(S22))</f>
         <v>48214</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="3">
         <v>1450000</v>
       </c>
       <c r="W22" s="1">
@@ -3293,6 +3320,9 @@
         <v>37</v>
       </c>
       <c r="AC22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s">
         <v>37</v>
       </c>
       <c r="AE22" t="s">
@@ -3384,7 +3414,7 @@
         <f>DATE(YEAR(S23)+8, MONTH(S23), DAY(S23))</f>
         <v>47484</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="3">
         <v>550000</v>
       </c>
       <c r="W23" s="1">
@@ -3502,7 +3532,7 @@
         <f>DATE(YEAR(S24)+5, MONTH(S24), DAY(S24))</f>
         <v>46388</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="3">
         <v>1500000</v>
       </c>
       <c r="W24" s="1">
@@ -3738,7 +3768,7 @@
         <f>DATE(YEAR(S26)+7, MONTH(S26), DAY(S26))</f>
         <v>47119</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="3">
         <v>2000000</v>
       </c>
       <c r="W26" s="1">
@@ -3761,6 +3791,9 @@
         <v>37</v>
       </c>
       <c r="AC26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD26" t="s">
         <v>37</v>
       </c>
       <c r="AE26" t="s">
@@ -3852,7 +3885,7 @@
         <f>DATE(YEAR(S27)+2, MONTH(S27), DAY(S27))</f>
         <v>45292</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="3">
         <v>1250000</v>
       </c>
       <c r="W27" s="1">
@@ -3875,6 +3908,9 @@
         <v>37</v>
       </c>
       <c r="AC27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD27" t="s">
         <v>37</v>
       </c>
       <c r="AE27" t="s">
@@ -3966,7 +4002,7 @@
         <f>DATE(YEAR(S28)+3, MONTH(S28), DAY(S28))</f>
         <v>45658</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="3">
         <v>1750000</v>
       </c>
       <c r="W28" s="1">

--- a/src/data/bankA/ANN_Portfolio.xlsx
+++ b/src/data/bankA/ANN_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viganhamzai/Documents/ZHAW_WI/07_Semester/PA/PA_FEMS/src/data/bankA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8716DF2-6240-A84B-8965-EA426418246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D616A2-613F-EA49-8CA5-7D9217EF00A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2827F415-5853-FE46-AE22-EC4475DFFC5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="101">
   <si>
     <t>calendar</t>
   </si>
@@ -339,9 +339,6 @@
   </si>
   <si>
     <t>3 years loan to bank with variable rate + spread</t>
-  </si>
-  <si>
-    <t>YC_CTRS</t>
   </si>
 </sst>
 </file>
@@ -707,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF54409-75AA-D240-BC62-D87145E7C900}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V28"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,7 +930,7 @@
       </c>
       <c r="V2" s="3">
         <f ca="1">RANDBETWEEN(500000, 3000000)</f>
-        <v>2952871</v>
+        <v>2827448</v>
       </c>
       <c r="W2" s="1">
         <f>DATE(YEAR(S2)+1,MONTH(S2),DAY(S2))</f>
@@ -948,18 +945,9 @@
       <c r="Z2" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="1">
-        <f>R2</f>
-        <v>44561</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>101</v>
+      <c r="AA2" s="1"/>
+      <c r="AC2">
+        <v>0</v>
       </c>
       <c r="AE2" t="s">
         <v>44</v>
@@ -1052,7 +1040,7 @@
       </c>
       <c r="V3" s="3">
         <f t="shared" ref="V3:V16" ca="1" si="4">RANDBETWEEN(500000, 3000000)</f>
-        <v>1160480</v>
+        <v>1353936</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" ref="W3:W16" si="5">DATE(YEAR(S3)+1,MONTH(S3),DAY(S3))</f>
@@ -1067,18 +1055,9 @@
       <c r="Z3" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="1">
-        <f t="shared" ref="AA3:AA15" si="6">R3</f>
-        <v>44561</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>101</v>
+      <c r="AA3" s="1"/>
+      <c r="AC3">
+        <v>0</v>
       </c>
       <c r="AE3" t="s">
         <v>44</v>
@@ -1129,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J28" si="7">DATE(YEAR(S4)+1,MONTH(S4),DAY(S4))</f>
+        <f t="shared" ref="J4:J28" si="6">DATE(YEAR(S4)+1,MONTH(S4),DAY(S4))</f>
         <v>44927</v>
       </c>
       <c r="K4" t="s">
@@ -1171,7 +1150,7 @@
       </c>
       <c r="V4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>526197</v>
+        <v>1901324</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="5"/>
@@ -1186,18 +1165,9 @@
       <c r="Z4" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="1">
-        <f t="shared" si="6"/>
-        <v>44561</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>101</v>
+      <c r="AA4" s="1"/>
+      <c r="AC4">
+        <v>0</v>
       </c>
       <c r="AE4" t="s">
         <v>44</v>
@@ -1248,7 +1218,7 @@
         <v>94</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K5" t="s">
@@ -1290,7 +1260,7 @@
       </c>
       <c r="V5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1793116</v>
+        <v>1646000</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="5"/>
@@ -1305,17 +1275,9 @@
       <c r="Z5" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>37</v>
+      <c r="AA5" s="1"/>
+      <c r="AC5">
+        <v>0</v>
       </c>
       <c r="AE5" t="s">
         <v>44</v>
@@ -1366,7 +1328,7 @@
         <v>94</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K6" t="s">
@@ -1408,7 +1370,7 @@
       </c>
       <c r="V6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1382899</v>
+        <v>2805810</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="5"/>
@@ -1423,17 +1385,9 @@
       <c r="Z6" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>37</v>
+      <c r="AA6" s="1"/>
+      <c r="AC6">
+        <v>0</v>
       </c>
       <c r="AE6" t="s">
         <v>44</v>
@@ -1484,7 +1438,7 @@
         <v>94</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K7" t="s">
@@ -1526,7 +1480,7 @@
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2084005</v>
+        <v>1537278</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="5"/>
@@ -1541,17 +1495,9 @@
       <c r="Z7" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>37</v>
+      <c r="AA7" s="1"/>
+      <c r="AC7">
+        <v>0</v>
       </c>
       <c r="AE7" t="s">
         <v>44</v>
@@ -1602,7 +1548,7 @@
         <v>94</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K8" t="s">
@@ -1644,7 +1590,7 @@
       </c>
       <c r="V8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>719439</v>
+        <v>1039159</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="5"/>
@@ -1659,18 +1605,9 @@
       <c r="Z8" t="s">
         <v>37</v>
       </c>
-      <c r="AA8" s="1">
-        <f t="shared" si="6"/>
-        <v>44561</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA8" s="1"/>
       <c r="AC8">
-        <v>0.04</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="s">
         <v>44</v>
@@ -1721,7 +1658,7 @@
         <v>94</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K9" t="s">
@@ -1763,7 +1700,7 @@
       </c>
       <c r="V9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1684805</v>
+        <v>2586410</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="5"/>
@@ -1778,18 +1715,9 @@
       <c r="Z9" t="s">
         <v>37</v>
       </c>
-      <c r="AA9" s="1">
-        <f t="shared" si="6"/>
-        <v>44561</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA9" s="1"/>
       <c r="AC9">
-        <v>0.04</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="s">
         <v>44</v>
@@ -1840,7 +1768,7 @@
         <v>94</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K10" t="s">
@@ -1882,7 +1810,7 @@
       </c>
       <c r="V10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2583268</v>
+        <v>2211751</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="5"/>
@@ -1897,17 +1825,9 @@
       <c r="Z10" t="s">
         <v>37</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>37</v>
-      </c>
+      <c r="AA10" s="1"/>
       <c r="AC10">
-        <v>0.04</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="s">
         <v>44</v>
@@ -1958,7 +1878,7 @@
         <v>94</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K11" t="s">
@@ -2000,7 +1920,7 @@
       </c>
       <c r="V11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>693912</v>
+        <v>1137489</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="5"/>
@@ -2015,18 +1935,9 @@
       <c r="Z11" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" s="1">
-        <f t="shared" si="6"/>
-        <v>44561</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA11" s="1"/>
       <c r="AC11">
-        <v>0.05</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="s">
         <v>44</v>
@@ -2077,7 +1988,7 @@
         <v>94</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K12" t="s">
@@ -2119,7 +2030,7 @@
       </c>
       <c r="V12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>542812</v>
+        <v>2018925</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="5"/>
@@ -2134,18 +2045,9 @@
       <c r="Z12" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="1">
-        <f t="shared" si="6"/>
-        <v>44561</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA12" s="1"/>
       <c r="AC12">
-        <v>0.06</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="s">
         <v>44</v>
@@ -2196,7 +2098,7 @@
         <v>94</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K13" t="s">
@@ -2238,7 +2140,7 @@
       </c>
       <c r="V13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1873304</v>
+        <v>2840183</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="5"/>
@@ -2253,17 +2155,9 @@
       <c r="Z13" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>37</v>
-      </c>
+      <c r="AA13" s="1"/>
       <c r="AC13">
-        <v>0.05</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="s">
         <v>44</v>
@@ -2314,7 +2208,7 @@
         <v>94</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K14" t="s">
@@ -2356,7 +2250,7 @@
       </c>
       <c r="V14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2883905</v>
+        <v>1204752</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="5"/>
@@ -2371,17 +2265,9 @@
       <c r="Z14" t="s">
         <v>37</v>
       </c>
-      <c r="AA14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>37</v>
-      </c>
+      <c r="AA14" s="1"/>
       <c r="AC14">
-        <v>0.06</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="s">
         <v>44</v>
@@ -2432,7 +2318,7 @@
         <v>94</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K15" t="s">
@@ -2474,7 +2360,7 @@
       </c>
       <c r="V15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2359243</v>
+        <v>1845827</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="5"/>
@@ -2489,18 +2375,9 @@
       <c r="Z15" t="s">
         <v>37</v>
       </c>
-      <c r="AA15" s="1">
-        <f t="shared" si="6"/>
-        <v>44561</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>101</v>
+      <c r="AA15" s="1"/>
+      <c r="AC15">
+        <v>0</v>
       </c>
       <c r="AE15" t="s">
         <v>44</v>
@@ -2551,7 +2428,7 @@
         <v>94</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K16" t="s">
@@ -2593,7 +2470,7 @@
       </c>
       <c r="V16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1241887</v>
+        <v>1619621</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="5"/>
@@ -2608,17 +2485,9 @@
       <c r="Z16" t="s">
         <v>37</v>
       </c>
-      <c r="AA16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>37</v>
+      <c r="AA16" s="1"/>
+      <c r="AC16">
+        <v>0</v>
       </c>
       <c r="AE16" t="s">
         <v>44</v>
@@ -2669,7 +2538,7 @@
         <v>94</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K17" t="s">
@@ -2691,11 +2560,11 @@
         <v>43</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" ref="Q17:Q28" si="8">U17</f>
+        <f t="shared" ref="Q17:Q28" si="7">U17</f>
         <v>45292</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" ref="R17:R23" si="9">E17</f>
+        <f t="shared" ref="R17:R23" si="8">E17</f>
         <v>44561</v>
       </c>
       <c r="S17" s="1">
@@ -2725,17 +2594,9 @@
       <c r="Z17" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>37</v>
+      <c r="AA17" s="1"/>
+      <c r="AC17">
+        <v>0</v>
       </c>
       <c r="AE17" t="s">
         <v>44</v>
@@ -2786,7 +2647,7 @@
         <v>94</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K18" t="s">
@@ -2808,11 +2669,11 @@
         <v>43</v>
       </c>
       <c r="Q18" s="1">
+        <f t="shared" si="7"/>
+        <v>46388</v>
+      </c>
+      <c r="R18" s="1">
         <f t="shared" si="8"/>
-        <v>46388</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="9"/>
         <v>44561</v>
       </c>
       <c r="S18" s="1">
@@ -2830,7 +2691,7 @@
         <v>550000</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ref="W18:W23" si="10">DATE(YEAR(S18)+1,MONTH(S18),DAY(S18))</f>
+        <f t="shared" ref="W18:W23" si="9">DATE(YEAR(S18)+1,MONTH(S18),DAY(S18))</f>
         <v>44927</v>
       </c>
       <c r="X18" t="s">
@@ -2842,18 +2703,9 @@
       <c r="Z18" t="s">
         <v>37</v>
       </c>
-      <c r="AA18" s="1">
-        <f t="shared" ref="AA18:AA20" si="11">R18</f>
-        <v>44561</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>101</v>
+      <c r="AA18" s="1"/>
+      <c r="AC18">
+        <v>0</v>
       </c>
       <c r="AE18" t="s">
         <v>44</v>
@@ -2904,7 +2756,7 @@
         <v>94</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K19" t="s">
@@ -2926,11 +2778,11 @@
         <v>43</v>
       </c>
       <c r="Q19" s="1">
+        <f t="shared" si="7"/>
+        <v>46023</v>
+      </c>
+      <c r="R19" s="1">
         <f t="shared" si="8"/>
-        <v>46023</v>
-      </c>
-      <c r="R19" s="1">
-        <f t="shared" si="9"/>
         <v>44561</v>
       </c>
       <c r="S19" s="1">
@@ -2948,7 +2800,7 @@
         <v>725000</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44927</v>
       </c>
       <c r="X19" t="s">
@@ -2960,18 +2812,9 @@
       <c r="Z19" t="s">
         <v>37</v>
       </c>
-      <c r="AA19" s="1">
-        <f t="shared" si="11"/>
-        <v>44561</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA19" s="1"/>
       <c r="AC19">
-        <v>0.02</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="s">
         <v>44</v>
@@ -3022,7 +2865,7 @@
         <v>94</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K20" t="s">
@@ -3044,11 +2887,11 @@
         <v>43</v>
       </c>
       <c r="Q20" s="1">
+        <f t="shared" si="7"/>
+        <v>47119</v>
+      </c>
+      <c r="R20" s="1">
         <f t="shared" si="8"/>
-        <v>47119</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="9"/>
         <v>44561</v>
       </c>
       <c r="S20" s="1">
@@ -3066,7 +2909,7 @@
         <v>225000</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44927</v>
       </c>
       <c r="X20" t="s">
@@ -3078,18 +2921,9 @@
       <c r="Z20" t="s">
         <v>37</v>
       </c>
-      <c r="AA20" s="1">
-        <f t="shared" si="11"/>
-        <v>44561</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA20" s="1"/>
       <c r="AC20">
-        <v>0.03</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="s">
         <v>44</v>
@@ -3140,7 +2974,7 @@
         <v>94</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K21" t="s">
@@ -3162,11 +2996,11 @@
         <v>43</v>
       </c>
       <c r="Q21" s="1">
+        <f t="shared" si="7"/>
+        <v>46753</v>
+      </c>
+      <c r="R21" s="1">
         <f t="shared" si="8"/>
-        <v>46753</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="9"/>
         <v>44561</v>
       </c>
       <c r="S21" s="1">
@@ -3184,7 +3018,7 @@
         <v>500000</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44927</v>
       </c>
       <c r="X21" t="s">
@@ -3196,17 +3030,9 @@
       <c r="Z21" t="s">
         <v>37</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>37</v>
+      <c r="AA21" s="1"/>
+      <c r="AC21">
+        <v>0</v>
       </c>
       <c r="AE21" t="s">
         <v>44</v>
@@ -3257,7 +3083,7 @@
         <v>94</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K22" t="s">
@@ -3279,11 +3105,11 @@
         <v>43</v>
       </c>
       <c r="Q22" s="1">
+        <f t="shared" si="7"/>
+        <v>48214</v>
+      </c>
+      <c r="R22" s="1">
         <f t="shared" si="8"/>
-        <v>48214</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="9"/>
         <v>44561</v>
       </c>
       <c r="S22" s="1">
@@ -3301,7 +3127,7 @@
         <v>1450000</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44927</v>
       </c>
       <c r="X22" t="s">
@@ -3313,17 +3139,9 @@
       <c r="Z22" t="s">
         <v>37</v>
       </c>
-      <c r="AA22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>37</v>
+      <c r="AA22" s="1"/>
+      <c r="AC22">
+        <v>0</v>
       </c>
       <c r="AE22" t="s">
         <v>44</v>
@@ -3374,7 +3192,7 @@
         <v>94</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K23" t="s">
@@ -3396,11 +3214,11 @@
         <v>43</v>
       </c>
       <c r="Q23" s="1">
+        <f t="shared" si="7"/>
+        <v>47484</v>
+      </c>
+      <c r="R23" s="1">
         <f t="shared" si="8"/>
-        <v>47484</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" si="9"/>
         <v>44561</v>
       </c>
       <c r="S23" s="1">
@@ -3418,7 +3236,7 @@
         <v>550000</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44927</v>
       </c>
       <c r="X23" t="s">
@@ -3430,18 +3248,9 @@
       <c r="Z23" t="s">
         <v>37</v>
       </c>
-      <c r="AA23" s="1">
-        <f t="shared" ref="AA23:AA25" si="12">R23</f>
-        <v>44561</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA23" s="1"/>
       <c r="AC23">
-        <v>0.01</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="s">
         <v>44</v>
@@ -3492,7 +3301,7 @@
         <v>94</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K24" t="s">
@@ -3514,11 +3323,11 @@
         <v>43</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>46388</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ref="R24:R28" si="13">E24</f>
+        <f t="shared" ref="R24:R28" si="10">E24</f>
         <v>44561</v>
       </c>
       <c r="S24" s="1">
@@ -3536,7 +3345,7 @@
         <v>1500000</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ref="W24:W28" si="14">DATE(YEAR(S24)+1,MONTH(S24),DAY(S24))</f>
+        <f t="shared" ref="W24:W28" si="11">DATE(YEAR(S24)+1,MONTH(S24),DAY(S24))</f>
         <v>44927</v>
       </c>
       <c r="X24" t="s">
@@ -3548,18 +3357,9 @@
       <c r="Z24" t="s">
         <v>37</v>
       </c>
-      <c r="AA24" s="1">
-        <f t="shared" si="12"/>
-        <v>44561</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA24" s="1"/>
       <c r="AC24">
-        <v>0.02</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="s">
         <v>44</v>
@@ -3610,7 +3410,7 @@
         <v>94</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K25" t="s">
@@ -3632,11 +3432,11 @@
         <v>43</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>48214</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S25" s="1">
@@ -3654,7 +3454,7 @@
         <v>3500000</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>44927</v>
       </c>
       <c r="X25" t="s">
@@ -3666,18 +3466,9 @@
       <c r="Z25" t="s">
         <v>37</v>
       </c>
-      <c r="AA25" s="1">
-        <f t="shared" si="12"/>
-        <v>44561</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA25" s="1"/>
       <c r="AC25">
-        <v>0.03</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="s">
         <v>44</v>
@@ -3728,7 +3519,7 @@
         <v>94</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K26" t="s">
@@ -3750,11 +3541,11 @@
         <v>43</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>47119</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S26" s="1">
@@ -3772,7 +3563,7 @@
         <v>2000000</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>44927</v>
       </c>
       <c r="X26" t="s">
@@ -3784,17 +3575,9 @@
       <c r="Z26" t="s">
         <v>37</v>
       </c>
-      <c r="AA26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>37</v>
+      <c r="AA26" s="1"/>
+      <c r="AC26">
+        <v>0</v>
       </c>
       <c r="AE26" t="s">
         <v>44</v>
@@ -3845,7 +3628,7 @@
         <v>94</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K27" t="s">
@@ -3867,11 +3650,11 @@
         <v>43</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>45292</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S27" s="1">
@@ -3889,7 +3672,7 @@
         <v>1250000</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>44927</v>
       </c>
       <c r="X27" t="s">
@@ -3901,17 +3684,9 @@
       <c r="Z27" t="s">
         <v>37</v>
       </c>
-      <c r="AA27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>37</v>
+      <c r="AA27" s="1"/>
+      <c r="AC27">
+        <v>0</v>
       </c>
       <c r="AE27" t="s">
         <v>44</v>
@@ -3962,7 +3737,7 @@
         <v>94</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="K28" t="s">
@@ -3984,11 +3759,11 @@
         <v>43</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>45658</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>44561</v>
       </c>
       <c r="S28" s="1">
@@ -4006,7 +3781,7 @@
         <v>1750000</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>44927</v>
       </c>
       <c r="X28" t="s">
@@ -4018,18 +3793,9 @@
       <c r="Z28" t="s">
         <v>37</v>
       </c>
-      <c r="AA28" s="1">
-        <f t="shared" ref="AA28" si="15">R28</f>
-        <v>44561</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA28" s="1"/>
       <c r="AC28">
-        <v>0.01</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="s">
         <v>44</v>

--- a/src/data/bankA/ANN_Portfolio.xlsx
+++ b/src/data/bankA/ANN_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viganhamzai/Documents/ZHAW_WI/07_Semester/PA/PA_FEMS/src/data/bankA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D616A2-613F-EA49-8CA5-7D9217EF00A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71F3E6A-2D43-4B47-9DD6-48B2237AB561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2827F415-5853-FE46-AE22-EC4475DFFC5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="104">
   <si>
     <t>calendar</t>
   </si>
@@ -339,6 +339,15 @@
   </si>
   <si>
     <t>3 years loan to bank with variable rate + spread</t>
+  </si>
+  <si>
+    <t>DC_EcoSec_H</t>
+  </si>
+  <si>
+    <t>DC_EcoSec_M</t>
+  </si>
+  <si>
+    <t>DC_EcoSec_L</t>
   </si>
 </sst>
 </file>
@@ -705,7 +714,7 @@
   <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -885,7 +894,7 @@
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J2" s="1">
         <f>DATE(YEAR(S2)+1,MONTH(S2),DAY(S2))</f>
@@ -930,7 +939,7 @@
       </c>
       <c r="V2" s="3">
         <f ca="1">RANDBETWEEN(500000, 3000000)</f>
-        <v>2827448</v>
+        <v>1302377</v>
       </c>
       <c r="W2" s="1">
         <f>DATE(YEAR(S2)+1,MONTH(S2),DAY(S2))</f>
@@ -995,7 +1004,7 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J3" s="1">
         <f>DATE(YEAR(S3)+1,MONTH(S3),DAY(S3))</f>
@@ -1040,7 +1049,7 @@
       </c>
       <c r="V3" s="3">
         <f t="shared" ref="V3:V16" ca="1" si="4">RANDBETWEEN(500000, 3000000)</f>
-        <v>1353936</v>
+        <v>1242769</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" ref="W3:W16" si="5">DATE(YEAR(S3)+1,MONTH(S3),DAY(S3))</f>
@@ -1105,7 +1114,7 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4:J28" si="6">DATE(YEAR(S4)+1,MONTH(S4),DAY(S4))</f>
@@ -1150,7 +1159,7 @@
       </c>
       <c r="V4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1901324</v>
+        <v>1773731</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="5"/>
@@ -1215,7 +1224,7 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="6"/>
@@ -1260,7 +1269,7 @@
       </c>
       <c r="V5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1646000</v>
+        <v>529023</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="5"/>
@@ -1325,7 +1334,7 @@
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="6"/>
@@ -1370,7 +1379,7 @@
       </c>
       <c r="V6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2805810</v>
+        <v>2706442</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="5"/>
@@ -1435,7 +1444,7 @@
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="6"/>
@@ -1480,7 +1489,7 @@
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1537278</v>
+        <v>1088990</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="5"/>
@@ -1545,7 +1554,7 @@
         <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="6"/>
@@ -1590,7 +1599,7 @@
       </c>
       <c r="V8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1039159</v>
+        <v>2125903</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="5"/>
@@ -1655,7 +1664,7 @@
         <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="6"/>
@@ -1700,7 +1709,7 @@
       </c>
       <c r="V9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2586410</v>
+        <v>2405858</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="5"/>
@@ -1765,7 +1774,7 @@
         <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="6"/>
@@ -1810,7 +1819,7 @@
       </c>
       <c r="V10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2211751</v>
+        <v>1789959</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="5"/>
@@ -1875,7 +1884,7 @@
         <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="6"/>
@@ -1920,7 +1929,7 @@
       </c>
       <c r="V11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1137489</v>
+        <v>695371</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="5"/>
@@ -1985,7 +1994,7 @@
         <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="6"/>
@@ -2030,7 +2039,7 @@
       </c>
       <c r="V12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2018925</v>
+        <v>1154589</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="5"/>
@@ -2095,7 +2104,7 @@
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="6"/>
@@ -2140,7 +2149,7 @@
       </c>
       <c r="V13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2840183</v>
+        <v>1269912</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="5"/>
@@ -2205,7 +2214,7 @@
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="6"/>
@@ -2250,7 +2259,7 @@
       </c>
       <c r="V14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1204752</v>
+        <v>2221981</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="5"/>
@@ -2315,7 +2324,7 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="6"/>
@@ -2360,7 +2369,7 @@
       </c>
       <c r="V15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1845827</v>
+        <v>742785</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="5"/>
@@ -2425,7 +2434,7 @@
         <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="6"/>
@@ -2470,7 +2479,7 @@
       </c>
       <c r="V16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1619621</v>
+        <v>1251837</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="5"/>
@@ -2535,7 +2544,7 @@
         <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="6"/>
@@ -2644,7 +2653,7 @@
         <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="6"/>
@@ -2753,7 +2762,7 @@
         <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="6"/>
@@ -2862,7 +2871,7 @@
         <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="6"/>
@@ -2971,7 +2980,7 @@
         <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="6"/>
@@ -3080,7 +3089,7 @@
         <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="6"/>
@@ -3189,7 +3198,7 @@
         <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="6"/>
